--- a/TemplateCheckRepo.xlsx
+++ b/TemplateCheckRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellencooper/Google Drive/Work Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TECNYFS1\Evaluations\PaperlessBeta\To Do\Ellen\Projects\Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D070315-3A10-7F48-AAA3-57191B093253}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E23D40-BF6D-43C9-BB90-41281F94D998}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17760" windowHeight="19200" xr2:uid="{E87BD9B6-1497-8141-8E0F-75EBDD9F80C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{E87BD9B6-1497-8141-8E0F-75EBDD9F80C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -177,45 +183,30 @@
     <t>to hire a A</t>
   </si>
   <si>
-    <t>that a A</t>
-  </si>
-  <si>
     <t>to employ a E</t>
   </si>
   <si>
     <t>to hire a E</t>
   </si>
   <si>
-    <t>that a E</t>
-  </si>
-  <si>
     <t>to employ a I</t>
   </si>
   <si>
     <t>to hire a I</t>
   </si>
   <si>
-    <t>that a I</t>
-  </si>
-  <si>
     <t>to employ a O</t>
   </si>
   <si>
     <t>to hire a O</t>
   </si>
   <si>
-    <t>that a O</t>
-  </si>
-  <si>
     <t>to employ a U</t>
   </si>
   <si>
     <t>to hire a U</t>
   </si>
   <si>
-    <t>that a U</t>
-  </si>
-  <si>
     <t>..</t>
   </si>
   <si>
@@ -250,6 +241,21 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>It is apparent that a A</t>
+  </si>
+  <si>
+    <t>It is apparent that a E</t>
+  </si>
+  <si>
+    <t>It is apparent that a I</t>
+  </si>
+  <si>
+    <t>It is apparent that a O</t>
+  </si>
+  <si>
+    <t>It is apparent that a U</t>
   </si>
 </sst>
 </file>
@@ -640,33 +646,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824BC63-822F-C24A-BCA7-975F270C7A98}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68:E71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="104.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="104.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>"phrase(" &amp; ROW(A2)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; CHAR(34) &amp; A2 &amp; CHAR(34)</f>
@@ -694,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C66" si="0">"phrase(" &amp; ROW(A3)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; CHAR(34) &amp; A3 &amp; CHAR(34)</f>
@@ -714,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -734,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -774,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -794,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -814,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -834,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -854,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -874,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -894,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -914,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -934,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -954,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -974,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1014,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1034,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1054,7 +1060,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1074,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1094,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1114,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1154,7 +1160,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1174,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1194,7 +1200,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1214,7 +1220,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1240,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1254,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1280,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1300,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1314,7 +1320,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1334,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1354,7 +1360,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1374,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1394,7 +1400,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1414,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1434,7 +1440,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1460,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1474,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1494,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1514,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1534,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1554,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1574,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1614,7 +1620,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1634,7 +1640,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1654,7 +1660,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1671,14 +1677,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>phrase(51, 1) = "that a A"</v>
+        <v>phrase(51, 1) = "It is apparent that a A"</v>
       </c>
       <c r="D52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1686,15 +1692,15 @@
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>phrase(51, 1) = "that a A" : phrase(51, 2) = "N"</v>
+        <v>phrase(51, 1) = "It is apparent that a A" : phrase(51, 2) = "N"</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1711,10 +1717,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1731,14 +1737,14 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>phrase(54, 1) = "that a E"</v>
+        <v>phrase(54, 1) = "It is apparent that a E"</v>
       </c>
       <c r="D55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1746,15 +1752,15 @@
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>phrase(54, 1) = "that a E" : phrase(54, 2) = "N"</v>
+        <v>phrase(54, 1) = "It is apparent that a E" : phrase(54, 2) = "N"</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1771,10 +1777,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1791,14 +1797,14 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>phrase(57, 1) = "that a I"</v>
+        <v>phrase(57, 1) = "It is apparent that a I"</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1806,15 +1812,15 @@
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>phrase(57, 1) = "that a I" : phrase(57, 2) = "N"</v>
+        <v>phrase(57, 1) = "It is apparent that a I" : phrase(57, 2) = "N"</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1831,10 +1837,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1851,14 +1857,14 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>phrase(60, 1) = "that a O"</v>
+        <v>phrase(60, 1) = "It is apparent that a O"</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1866,15 +1872,15 @@
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>phrase(60, 1) = "that a O" : phrase(60, 2) = "N"</v>
+        <v>phrase(60, 1) = "It is apparent that a O" : phrase(60, 2) = "N"</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1891,10 +1897,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1911,14 +1917,14 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>phrase(63, 1) = "that a U"</v>
+        <v>phrase(63, 1) = "It is apparent that a U"</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1926,15 +1932,15 @@
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>phrase(63, 1) = "that a U" : phrase(63, 2) = "N"</v>
+        <v>phrase(63, 1) = "It is apparent that a U" : phrase(63, 2) = "N"</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1951,10 +1957,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1971,10 +1977,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="str">
         <f t="shared" ref="C67:C71" si="3">"phrase(" &amp; ROW(A67)-1 &amp; ", " &amp; 1 &amp; ") = " &amp; CHAR(34) &amp; A67 &amp; CHAR(34)</f>
@@ -1991,10 +1997,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2011,10 +2017,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2031,10 +2037,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2051,10 +2057,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="str">
         <f t="shared" si="3"/>
